--- a/logsearch/data/error_logs/UC1_UC1_新人_11_copy_44.xlsx
+++ b/logsearch/data/error_logs/UC1_UC1_新人_11_copy_44.xlsx
@@ -515,7 +515,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Maaya Kobayashi</t>
+          <t>Satomi Fujita</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -548,12 +548,12 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_141958_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>「スタート」ボタンをクリックするか、キーボードの「Windowsキー」を押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L2" t="inlineStr"/>
@@ -570,7 +570,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Maaya Kobayashi</t>
+          <t>Satomi Fujita</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -603,12 +603,12 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>メニューから「設定」アイコン（歯車アイコン）をクリックする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L3" t="inlineStr"/>
@@ -625,7 +625,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Maaya Kobayashi</t>
+          <t>Satomi Fujita</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -658,12 +658,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>「更新とセキュリティ」オプションを選択する</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L4" t="inlineStr"/>
@@ -675,12 +675,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>operation</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Maaya Kobayashi</t>
+          <t>Satomi Fujita</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -713,16 +713,24 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/4.png</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>左側のメニューから「Windows Update」をクリックし、Windows Update画面に移動する</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+          <t>0x80240fff エラー</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Error W</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> エラーの Windows</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -735,7 +743,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Maaya Kobayashi</t>
+          <t>Satomi Fujita</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -768,12 +776,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックする</t>
         </is>
       </c>
       <c r="L6" t="inlineStr"/>
@@ -785,12 +793,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>operation</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Maaya Kobayashi</t>
+          <t>Satomi Fujita</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -823,24 +831,16 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0x80244007 エラー</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Error W</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> エラーの Windows</t>
-        </is>
-      </c>
+          <t>メニューからターミナル(管理者)をクリックする</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -853,7 +853,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Maaya Kobayashi</t>
+          <t>Satomi Fujita</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -886,12 +886,12 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/6.png</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックし、メニューから「Windows PowerShell(管理者)(A)」をクリックする</t>
+          <t>ユーザーアカウント制御と表示されているウィンドウが開いたことを確認する</t>
         </is>
       </c>
       <c r="L8" t="inlineStr"/>
@@ -908,7 +908,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Maaya Kobayashi</t>
+          <t>Satomi Fujita</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -941,12 +941,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/7.png</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>「管理者：Windows PowerShell」と表示されているウィンドウが開いたことを確認する</t>
+          <t>PowerShellウィンドウに start-transcript と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L9" t="inlineStr"/>
@@ -963,7 +963,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Maaya Kobayashi</t>
+          <t>Satomi Fujita</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -996,12 +996,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/8.png</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>PowerShellウィンドウに Start-Transcript と入力し、[Enter]キーを押す</t>
+          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L10" t="inlineStr"/>
@@ -1018,7 +1018,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Maaya Kobayashi</t>
+          <t>Satomi Fujita</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/9.png</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L11" t="inlineStr"/>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Maaya Kobayashi</t>
+          <t>Satomi Fujita</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1106,12 +1106,12 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/10.png</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L12" t="inlineStr"/>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Maaya Kobayashi</t>
+          <t>Satomi Fujita</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1161,12 +1161,12 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L13" t="inlineStr"/>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Maaya Kobayashi</t>
+          <t>Satomi Fujita</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1216,12 +1216,12 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Windowsの設定画面に戻り、「更新とセキュリティ」→「Windows Update」にアクセスする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L14" t="inlineStr"/>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Maaya Kobayashi</t>
+          <t>Satomi Fujita</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1271,12 +1271,12 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L15" t="inlineStr"/>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Maaya Kobayashi</t>
+          <t>Satomi Fujita</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1326,12 +1326,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/11.png</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>正常に更新がチェックする</t>
+          <t>「更新プログラムのチェック」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L16" t="inlineStr"/>
